--- a/Validacion_Portabilidad/Configuracion/Config.xlsx
+++ b/Validacion_Portabilidad/Configuracion/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Validacion_Portabilidad\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962C694-FCFB-44FB-B635-B4AE488F9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC2783-993A-45C0-BAA4-408A23FA5EE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -130,13 +130,19 @@
   </si>
   <si>
     <t>SELECT * FROM [OUT PORTABILIDAD$] w WHERE w.ESTADO = 'REDIGITADO' OR w.ESTADO = 'ENVIADO ABD'</t>
+  </si>
+  <si>
+    <t>LinkPajarito</t>
+  </si>
+  <si>
+    <t>http://132.147.170.110:8080/Consulta_Portados.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,13 +180,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,9 +198,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -220,11 +218,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -680,135 +677,141 @@
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:26">
+      <c r="A9" s="9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:26">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{40ED83D4-A24D-4817-A318-C808981A5E5E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Validacion_Portabilidad/Configuracion/Config.xlsx
+++ b/Validacion_Portabilidad/Configuracion/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC2783-993A-45C0-BAA4-408A23FA5EE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55EE57D-2839-46E0-8060-25DB81EDC369}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Formato_Informe_Ejecucion.xlsx</t>
   </si>
   <si>
-    <t>UpdateEstatusNew</t>
-  </si>
-  <si>
     <t>InformeEjecucionSheetName</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>OUT PORTABILIDAD</t>
   </si>
   <si>
-    <t>UPDATE [Informe$] w SET w.[STATUS_EJECUCION] = 'NUEVO'</t>
-  </si>
-  <si>
     <t>SelectNewTransaction</t>
   </si>
   <si>
@@ -136,13 +130,61 @@
   </si>
   <si>
     <t>http://132.147.170.110:8080/Consulta_Portados.aspx</t>
+  </si>
+  <si>
+    <t>UpdateTransactionStatusFailed</t>
+  </si>
+  <si>
+    <t>UpdateTransactionStatusSuccess</t>
+  </si>
+  <si>
+    <t>UPDATE [Informe$] w SET w.[STATUS_EJECUCION] = '{0}' WHERE w.[ID] = {1}</t>
+  </si>
+  <si>
+    <t>UPDATE [Informe$] w SET w.[STATUS_EJECUCION] = '{0}', w.[Observaciones_Ejecucion] =  '{1}' WHERE w.[ID] = {2}</t>
+  </si>
+  <si>
+    <t>CELDAS</t>
+  </si>
+  <si>
+    <t>StatusTransaction</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>ObservacionesTransaction</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Estados Pajarito</t>
+  </si>
+  <si>
+    <t>RechazadoABD</t>
+  </si>
+  <si>
+    <t>Rechazado ABD</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CeldaEstado</t>
+  </si>
+  <si>
+    <t>CeldaCausal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,6 +222,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -220,6 +268,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -684,10 +733,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -742,71 +791,135 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Validacion_Portabilidad/Configuracion/Config.xlsx
+++ b/Validacion_Portabilidad/Configuracion/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Validacion_Portabilidad\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55EE57D-2839-46E0-8060-25DB81EDC369}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B780C-A940-4D28-821F-A20F5E3AFC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,84 @@
   </si>
   <si>
     <t>CeldaCausal</t>
+  </si>
+  <si>
+    <t>CausalNoCorresponde</t>
+  </si>
+  <si>
+    <t>El NIP indicado en la solicitud de portabilidad no corresponde</t>
+  </si>
+  <si>
+    <t>NuevoEstado</t>
+  </si>
+  <si>
+    <t>PENDIENTE REDIGITACIÓN</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>CeldaOperadorDonante</t>
+  </si>
+  <si>
+    <t>Correos</t>
+  </si>
+  <si>
+    <t>CorreosNotificacion</t>
+  </si>
+  <si>
+    <t>monica.lozano@caex.com.co</t>
+  </si>
+  <si>
+    <t>CorreosError</t>
+  </si>
+  <si>
+    <t>SubjectError</t>
+  </si>
+  <si>
+    <t>::El asistente virtual Validación Portabilidad fallo</t>
+  </si>
+  <si>
+    <t>SubjectNotificacionInicio</t>
+  </si>
+  <si>
+    <t>::El asistente virtual Validación Portabilidad terminó su operación con éxito</t>
+  </si>
+  <si>
+    <t>SubjectNotificacionFinalizacion</t>
+  </si>
+  <si>
+    <t>::El asistente virtual Validación Portabilidad inició</t>
+  </si>
+  <si>
+    <t>BodyError</t>
+  </si>
+  <si>
+    <t>BodyInicio</t>
+  </si>
+  <si>
+    <t>BodyFin</t>
+  </si>
+  <si>
+    <t>BodyAdjunto</t>
+  </si>
+  <si>
+    <t>SubjectAdjunto</t>
+  </si>
+  <si>
+    <t>::El asistente virtual Validación Portabilidad envía sus archivos de ejecución</t>
+  </si>
+  <si>
+    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad envía archivos adjuntos de salida \n \n \n Que tenga un buen día</t>
+  </si>
+  <si>
+    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad fallo, validar logs y archivo de salida para conocer fallo \n \n \n Que tenga un buen día</t>
+  </si>
+  <si>
+    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad inició su ejecución \n \n \n Que tenga un buen día</t>
+  </si>
+  <si>
+    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad finalizo su ejecución \n \n \n Que tenga un buen día</t>
   </si>
 </sst>
 </file>
@@ -249,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -269,6 +347,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -878,7 +957,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -886,7 +965,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>44</v>
@@ -894,31 +973,140 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Validacion_Portabilidad/Configuracion/Config.xlsx
+++ b/Validacion_Portabilidad/Configuracion/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Validacion_Portabilidad\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B780C-A940-4D28-821F-A20F5E3AFC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE051E-7340-4997-98FF-FA83AE0DCADF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -246,16 +246,44 @@
     <t>::El asistente virtual Validación Portabilidad envía sus archivos de ejecución</t>
   </si>
   <si>
-    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad envía archivos adjuntos de salida \n \n \n Que tenga un buen día</t>
-  </si>
-  <si>
-    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad fallo, validar logs y archivo de salida para conocer fallo \n \n \n Que tenga un buen día</t>
-  </si>
-  <si>
-    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad inició su ejecución \n \n \n Que tenga un buen día</t>
-  </si>
-  <si>
-    <t>Saludos equipo \n \n \n El asistente virtual Validación Portabilidad finalizo su ejecución \n \n \n Que tenga un buen día</t>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CeldaDiaActivacion</t>
+  </si>
+  <si>
+    <t>monica.lozano@caex.com.co,heyli.agredo@caex.com.co</t>
+  </si>
+  <si>
+    <t>SelectCount</t>
+  </si>
+  <si>
+    <t>"SELECT i.ESTADO, COUNT(I.ESTADO) AS CANTIDAD_ESTADO FROM [Informe$] i GROUP BY i.ESTADO"</t>
+  </si>
+  <si>
+    <t>Saludos equipo
+El asistente virtual Validación Portabilidad fallo, validar logs y archivo de salida para conocer fallo
+Que tenga un buen día</t>
+  </si>
+  <si>
+    <t>Saludos equipo
+El asistente virtual Validación Portabilidad envía archivos adjuntos de salida
+Que tenga un buen día
+Este mensaje fué generado automaticamente, por favor no contestar</t>
+  </si>
+  <si>
+    <t>Saludos equipo
+El asistente virtual Validación Portabilidad inició su ejecución con un total de {0} y de los estados a procesar se encontraron las siguientes cantidades.
+{1}
+Que tenga un buen día
+Este mensaje fué generado automaticamente, por favor no contestar</t>
+  </si>
+  <si>
+    <t>Saludos equipo
+El asistente virtual Validación Portabilidad finalizo su ejecución con los siguientes registros por estado:
+{1}
+Que tenga un buen día
+Este mensaje fué generado automaticamente, por favor no contestar</t>
   </si>
 </sst>
 </file>
@@ -747,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -902,8 +930,12 @@
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
@@ -995,118 +1027,126 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="9" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="150">
+      <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="105">
+      <c r="A48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="210">
+      <c r="A49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="210">
+      <c r="A50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>77</v>
+      <c r="B50" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Validacion_Portabilidad/Configuracion/Config.xlsx
+++ b/Validacion_Portabilidad/Configuracion/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Validacion_Portabilidad\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE051E-7340-4997-98FF-FA83AE0DCADF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2FE1DE-9AC8-435F-A42E-9F63C2347AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>CeldaDiaActivacion</t>
   </si>
   <si>
-    <t>monica.lozano@caex.com.co,heyli.agredo@caex.com.co</t>
-  </si>
-  <si>
     <t>SelectCount</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
 {1}
 Que tenga un buen día
 Este mensaje fué generado automaticamente, por favor no contestar</t>
+  </si>
+  <si>
+    <t>monica.lozano@caex.com.co; heyli.agredo@caex.com.co; andres.rodriguez@caex.com.co; katherine.loaiza@caex.com.co</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -931,10 +931,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -1074,7 +1074,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="105">
@@ -1130,7 +1130,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="210">
@@ -1138,7 +1138,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="210">
@@ -1146,7 +1146,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
